--- a/non_explainable_medium_disc/val/class_label.xlsx
+++ b/non_explainable_medium_disc/val/class_label.xlsx
@@ -516,7 +516,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -572,7 +572,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -684,7 +684,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -716,7 +716,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -780,7 +780,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -948,7 +948,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -972,7 +972,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -1012,7 +1012,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -1068,7 +1068,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -1132,7 +1132,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -1284,7 +1284,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -1340,7 +1340,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -1404,7 +1404,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -1412,7 +1412,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -1420,7 +1420,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -1716,7 +1716,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
@@ -1748,7 +1748,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -1788,7 +1788,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -1796,7 +1796,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -1844,7 +1844,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
@@ -1932,7 +1932,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -1940,7 +1940,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
@@ -2028,7 +2028,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -2044,7 +2044,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
@@ -2084,7 +2084,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
@@ -2100,7 +2100,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
@@ -2140,7 +2140,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
@@ -2260,7 +2260,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
@@ -2268,7 +2268,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231">
@@ -2292,7 +2292,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
@@ -2300,7 +2300,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
@@ -2324,7 +2324,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
@@ -2388,7 +2388,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246">
@@ -2412,7 +2412,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249">
@@ -2444,7 +2444,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
@@ -2452,7 +2452,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">
@@ -2588,7 +2588,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271">
@@ -2612,7 +2612,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274">
@@ -2620,7 +2620,7 @@
         <v>272</v>
       </c>
       <c r="B274" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275">
@@ -2708,7 +2708,7 @@
         <v>283</v>
       </c>
       <c r="B285" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286">
@@ -3300,7 +3300,7 @@
         <v>357</v>
       </c>
       <c r="B359" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360">
@@ -3308,7 +3308,7 @@
         <v>358</v>
       </c>
       <c r="B360" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361">
@@ -3404,7 +3404,7 @@
         <v>370</v>
       </c>
       <c r="B372" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373">
@@ -3460,7 +3460,7 @@
         <v>377</v>
       </c>
       <c r="B379" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380">
@@ -3532,7 +3532,7 @@
         <v>386</v>
       </c>
       <c r="B388" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389">
@@ -3548,7 +3548,7 @@
         <v>388</v>
       </c>
       <c r="B390" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391">
@@ -3612,7 +3612,7 @@
         <v>396</v>
       </c>
       <c r="B398" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399">
@@ -3700,7 +3700,7 @@
         <v>407</v>
       </c>
       <c r="B409" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410">
@@ -3716,7 +3716,7 @@
         <v>409</v>
       </c>
       <c r="B411" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412">
@@ -3740,7 +3740,7 @@
         <v>412</v>
       </c>
       <c r="B414" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415">
@@ -3788,7 +3788,7 @@
         <v>418</v>
       </c>
       <c r="B420" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421">
@@ -3796,7 +3796,7 @@
         <v>419</v>
       </c>
       <c r="B421" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422">
@@ -3804,7 +3804,7 @@
         <v>420</v>
       </c>
       <c r="B422" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423">
@@ -3884,7 +3884,7 @@
         <v>430</v>
       </c>
       <c r="B432" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433">
@@ -4116,7 +4116,7 @@
         <v>459</v>
       </c>
       <c r="B461" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462">
@@ -4124,7 +4124,7 @@
         <v>460</v>
       </c>
       <c r="B462" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463">
@@ -4148,7 +4148,7 @@
         <v>463</v>
       </c>
       <c r="B465" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466">
